--- a/biology/Mycologie/Protoparmeliopsis_muralis/Protoparmeliopsis_muralis.xlsx
+++ b/biology/Mycologie/Protoparmeliopsis_muralis/Protoparmeliopsis_muralis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lécanore des murs
 Protoparmeliopsis muralis, la Lécanore des murs, est une espèce de champignons lichénisés de la famille des Lecanoraceae.
@@ -514,12 +526,87 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thalle
-Le thalle est crustacé, vert jaunâtre, lobé à la périphérie (lobules de 1 à 2 mm de large, souvent pruineux ou nacrés sur leurs bords), fendillé-aréolé et souvent un peu brunâtre au centre, ayant jusqu'à 10 cm de diamètre[1].
-Reproduction
-Le thalle est généralement fertile, étant recouvert au centre par de nombreuses apothécies sessiles de 0,5 à 1,5 mm de diamètre, au disque brun crémeux à brun, qui assurent la reproduction sexuée[2].
-Écologie
-Protoparmeliopsis muralis est un lichen saxicole présent sur nombreux substrats artificiels (murs, béton, mortier, tuiles, routes sur lesquelles il résiste au piétinement…). Rarement lignicole, il est plutôt héliophile et nitrophile, d'où sa fréquence moindre au nord des toits[1]. L'espèce est polluotolérante, ce qui explique qu'elle est très commune même en zone urbaine[2].
+          <t>Thalle</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le thalle est crustacé, vert jaunâtre, lobé à la périphérie (lobules de 1 à 2 mm de large, souvent pruineux ou nacrés sur leurs bords), fendillé-aréolé et souvent un peu brunâtre au centre, ayant jusqu'à 10 cm de diamètre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Protoparmeliopsis_muralis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Protoparmeliopsis_muralis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le thalle est généralement fertile, étant recouvert au centre par de nombreuses apothécies sessiles de 0,5 à 1,5 mm de diamètre, au disque brun crémeux à brun, qui assurent la reproduction sexuée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Protoparmeliopsis_muralis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Protoparmeliopsis_muralis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Protoparmeliopsis muralis est un lichen saxicole présent sur nombreux substrats artificiels (murs, béton, mortier, tuiles, routes sur lesquelles il résiste au piétinement…). Rarement lignicole, il est plutôt héliophile et nitrophile, d'où sa fréquence moindre au nord des toits. L'espèce est polluotolérante, ce qui explique qu'elle est très commune même en zone urbaine.
 </t>
         </is>
       </c>
